--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H2">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I2">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J2">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N2">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O2">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P2">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q2">
-        <v>49.4163729531875</v>
+        <v>275.700459217944</v>
       </c>
       <c r="R2">
-        <v>197.66549181275</v>
+        <v>1102.801836871776</v>
       </c>
       <c r="S2">
-        <v>0.0006094916750934968</v>
+        <v>0.001971721345112858</v>
       </c>
       <c r="T2">
-        <v>0.0002895691798075607</v>
+        <v>0.0009327099282918759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H3">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I3">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J3">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P3">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q3">
-        <v>41.11585093044417</v>
+        <v>193.7133436623973</v>
       </c>
       <c r="R3">
-        <v>246.695105582665</v>
+        <v>1162.280061974384</v>
       </c>
       <c r="S3">
-        <v>0.000507114694156737</v>
+        <v>0.001385375764754883</v>
       </c>
       <c r="T3">
-        <v>0.0003613948936204965</v>
+        <v>0.0009830144609971761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H4">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I4">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J4">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N4">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O4">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P4">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q4">
-        <v>167.1471220824175</v>
+        <v>891.098982095312</v>
       </c>
       <c r="R4">
-        <v>1002.882732494505</v>
+        <v>5346.593892571872</v>
       </c>
       <c r="S4">
-        <v>0.002061559222923476</v>
+        <v>0.006372854396360445</v>
       </c>
       <c r="T4">
-        <v>0.001469168581872151</v>
+        <v>0.004521955839584185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H5">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I5">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J5">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N5">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O5">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P5">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q5">
-        <v>28.93200403684125</v>
+        <v>163.18576643064</v>
       </c>
       <c r="R5">
-        <v>115.728016147365</v>
+        <v>652.7430657225599</v>
       </c>
       <c r="S5">
-        <v>0.0003568415597990333</v>
+        <v>0.001167052313959123</v>
       </c>
       <c r="T5">
-        <v>0.0001695352406190055</v>
+        <v>0.0005520664888898769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H6">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I6">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J6">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N6">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O6">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P6">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q6">
-        <v>47.20279295818083</v>
+        <v>1510.184450761677</v>
       </c>
       <c r="R6">
-        <v>283.216757749085</v>
+        <v>9061.106704570066</v>
       </c>
       <c r="S6">
-        <v>0.0005821898215076796</v>
+        <v>0.0108003553025295</v>
       </c>
       <c r="T6">
-        <v>0.0004148971249207659</v>
+        <v>0.007663556499541118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H7">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I7">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J7">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N7">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O7">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P7">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q7">
-        <v>142.6062579047808</v>
+        <v>737.0521348985093</v>
       </c>
       <c r="R7">
-        <v>855.6375474286849</v>
+        <v>4422.312809391056</v>
       </c>
       <c r="S7">
-        <v>0.001758877105196238</v>
+        <v>0.005271160704493333</v>
       </c>
       <c r="T7">
-        <v>0.001253462405345835</v>
+        <v>0.003740232311393007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J8">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N8">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O8">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P8">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q8">
-        <v>8045.575120582025</v>
+        <v>9527.379462581812</v>
       </c>
       <c r="R8">
-        <v>48273.45072349215</v>
+        <v>57164.27677549087</v>
       </c>
       <c r="S8">
-        <v>0.09923251676077934</v>
+        <v>0.06813676517858984</v>
       </c>
       <c r="T8">
-        <v>0.07071797613376168</v>
+        <v>0.04834747885745891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J9">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P9">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q9">
         <v>6694.151098886008</v>
@@ -1013,10 +1013,10 @@
         <v>60247.35988997407</v>
       </c>
       <c r="S9">
-        <v>0.08256432276917708</v>
+        <v>0.04787442373699603</v>
       </c>
       <c r="T9">
-        <v>0.08825910091295673</v>
+        <v>0.05095503910489606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J10">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N10">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O10">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P10">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q10">
-        <v>27213.54576502648</v>
+        <v>30793.70330112918</v>
       </c>
       <c r="R10">
-        <v>244921.9118852383</v>
+        <v>277143.3297101627</v>
       </c>
       <c r="S10">
-        <v>0.3356464386666334</v>
+        <v>0.2202266991724944</v>
       </c>
       <c r="T10">
-        <v>0.3587972614293896</v>
+        <v>0.2343978097767649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J11">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N11">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O11">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P11">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q11">
-        <v>4710.475454924582</v>
+        <v>5639.20975716591</v>
       </c>
       <c r="R11">
-        <v>28262.85272954749</v>
+        <v>33835.25854299546</v>
       </c>
       <c r="S11">
-        <v>0.05809806353510608</v>
+        <v>0.04032982128253578</v>
       </c>
       <c r="T11">
-        <v>0.04140353993437438</v>
+        <v>0.02861663856028172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J12">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N12">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O12">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P12">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q12">
-        <v>7685.177886407942</v>
+        <v>52187.43690783359</v>
       </c>
       <c r="R12">
-        <v>69166.60097767148</v>
+        <v>469686.9321705023</v>
       </c>
       <c r="S12">
-        <v>0.09478744924916918</v>
+        <v>0.3732278270039562</v>
       </c>
       <c r="T12">
-        <v>0.1013253033268666</v>
+        <v>0.3972442284527285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J13">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N13">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O13">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P13">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q13">
-        <v>23218.00027138578</v>
+        <v>25470.30713261539</v>
       </c>
       <c r="R13">
-        <v>208962.002442472</v>
+        <v>229232.7641935385</v>
       </c>
       <c r="S13">
-        <v>0.2863661784958135</v>
+        <v>0.1821554754838415</v>
       </c>
       <c r="T13">
-        <v>0.3061179526243899</v>
+        <v>0.1938767853883829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H14">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I14">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N14">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O14">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P14">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q14">
-        <v>3.009960140633333</v>
+        <v>0.9906181847609999</v>
       </c>
       <c r="R14">
-        <v>18.0597608438</v>
+        <v>5.943709108566</v>
       </c>
       <c r="S14">
-        <v>3.712424725742511E-05</v>
+        <v>7.084583846145046E-06</v>
       </c>
       <c r="T14">
-        <v>2.64565660252618E-05</v>
+        <v>5.026974304072493E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H15">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I15">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>19.794779</v>
       </c>
       <c r="O15">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P15">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q15">
-        <v>2.504373855323111</v>
+        <v>0.6960306174576666</v>
       </c>
       <c r="R15">
-        <v>22.539364697908</v>
+        <v>6.264275557118999</v>
       </c>
       <c r="S15">
-        <v>3.088844698471106E-05</v>
+        <v>4.977787955762834E-06</v>
       </c>
       <c r="T15">
-        <v>3.301894169337107E-05</v>
+        <v>5.298097818058274E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H16">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I16">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N16">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O16">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P16">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q16">
-        <v>10.18096118803067</v>
+        <v>3.201804083278</v>
       </c>
       <c r="R16">
-        <v>91.62865069227601</v>
+        <v>28.816236749502</v>
       </c>
       <c r="S16">
-        <v>0.0001255699420601535</v>
+        <v>2.289827688998588E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001342309827805988</v>
+        <v>2.43717313606495E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H17">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I17">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N17">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O17">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P17">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q17">
-        <v>1.762253555558</v>
+        <v>0.58634210541</v>
       </c>
       <c r="R17">
-        <v>10.573521333348</v>
+        <v>3.518052632459999</v>
       </c>
       <c r="S17">
-        <v>2.17352834157618E-05</v>
+        <v>4.193330863701607E-06</v>
       </c>
       <c r="T17">
-        <v>1.548963287469398E-05</v>
+        <v>2.9754417419694E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H18">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I18">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N18">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O18">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P18">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q18">
-        <v>2.875130586076889</v>
+        <v>5.426237531527668</v>
       </c>
       <c r="R18">
-        <v>25.876175274692</v>
+        <v>48.836137783749</v>
       </c>
       <c r="S18">
-        <v>3.546128645824698E-05</v>
+        <v>3.880671216476981E-05</v>
       </c>
       <c r="T18">
-        <v>3.790718745155257E-05</v>
+        <v>4.130383995327789E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H19">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I19">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N19">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O19">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P19">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q19">
-        <v>8.686172748956887</v>
+        <v>2.648298990935666</v>
       </c>
       <c r="R19">
-        <v>78.17555474061199</v>
+        <v>23.834690918421</v>
       </c>
       <c r="S19">
-        <v>0.0001071335199758267</v>
+        <v>1.893978582219512E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001145229299238761</v>
+        <v>2.015851997530204E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H20">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I20">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J20">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N20">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O20">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P20">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q20">
-        <v>209.6613415407875</v>
+        <v>415.4686633783785</v>
       </c>
       <c r="R20">
-        <v>838.64536616315</v>
+        <v>1661.874653513514</v>
       </c>
       <c r="S20">
-        <v>0.002585921115236397</v>
+        <v>0.002971298757109002</v>
       </c>
       <c r="T20">
-        <v>0.001228569785257836</v>
+        <v>0.001405553506607825</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H21">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I21">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J21">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>19.794779</v>
       </c>
       <c r="O21">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P21">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q21">
-        <v>174.4442974969882</v>
+        <v>291.9176275522668</v>
       </c>
       <c r="R21">
-        <v>1046.665784981929</v>
+        <v>1751.505765313601</v>
       </c>
       <c r="S21">
-        <v>0.00215156112717272</v>
+        <v>0.002087701336777637</v>
       </c>
       <c r="T21">
-        <v>0.001533308369156139</v>
+        <v>0.001481360260881033</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H22">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I22">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J22">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N22">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O22">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P22">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q22">
-        <v>709.1635374307856</v>
+        <v>1342.847611060043</v>
       </c>
       <c r="R22">
-        <v>4254.981224584713</v>
+        <v>8057.085666360259</v>
       </c>
       <c r="S22">
-        <v>0.008746681444090876</v>
+        <v>0.00960361584261217</v>
       </c>
       <c r="T22">
-        <v>0.006233315749755421</v>
+        <v>0.006814391799916948</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H23">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I23">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J23">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N23">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O23">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P23">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q23">
-        <v>122.7512748775373</v>
+        <v>245.913889493085</v>
       </c>
       <c r="R23">
-        <v>491.0050995101491</v>
+        <v>983.65555797234</v>
       </c>
       <c r="S23">
-        <v>0.001513989709763728</v>
+        <v>0.001758697342574765</v>
       </c>
       <c r="T23">
-        <v>0.0007192957285694142</v>
+        <v>0.0008319403126338473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H24">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I24">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J24">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N24">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O24">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P24">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q24">
-        <v>200.2696738884368</v>
+        <v>2275.782626523562</v>
       </c>
       <c r="R24">
-        <v>1201.618043330621</v>
+        <v>13654.69575914137</v>
       </c>
       <c r="S24">
-        <v>0.002470086162016031</v>
+        <v>0.01627566814463058</v>
       </c>
       <c r="T24">
-        <v>0.001760304988282077</v>
+        <v>0.01154864806761919</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H25">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I25">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J25">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N25">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O25">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P25">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q25">
-        <v>605.0427734295968</v>
+        <v>1110.70567744101</v>
       </c>
       <c r="R25">
-        <v>3630.256640577581</v>
+        <v>6664.23406464606</v>
       </c>
       <c r="S25">
-        <v>0.007462476734789039</v>
+        <v>0.007943411115674849</v>
       </c>
       <c r="T25">
-        <v>0.005318128259326218</v>
+        <v>0.005636368265569928</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H26">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I26">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J26">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N26">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O26">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P26">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q26">
-        <v>91.28093796206666</v>
+        <v>1.420389730255</v>
       </c>
       <c r="R26">
-        <v>547.6856277723999</v>
+        <v>8.52233838153</v>
       </c>
       <c r="S26">
-        <v>0.001125840859168458</v>
+        <v>1.015817223325321E-05</v>
       </c>
       <c r="T26">
-        <v>0.0008023296154124821</v>
+        <v>7.20788572792355E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H27">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I27">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J27">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>19.794779</v>
       </c>
       <c r="O27">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P27">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q27">
-        <v>75.94837932753155</v>
+        <v>0.9979977716827778</v>
       </c>
       <c r="R27">
-        <v>683.5354139477839</v>
+        <v>8.981979945145</v>
       </c>
       <c r="S27">
-        <v>0.0009367321430252334</v>
+        <v>7.137360287261827E-06</v>
       </c>
       <c r="T27">
-        <v>0.001001342153205895</v>
+        <v>7.596633946783435E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H28">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I28">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J28">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N28">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O28">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P28">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q28">
-        <v>308.7508283094053</v>
+        <v>4.590880430156667</v>
       </c>
       <c r="R28">
-        <v>2778.757454784648</v>
+        <v>41.31792387141</v>
       </c>
       <c r="S28">
-        <v>0.003808071055944746</v>
+        <v>3.283250583868326E-05</v>
       </c>
       <c r="T28">
-        <v>0.004070728328384093</v>
+        <v>3.494520640316347E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H29">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I29">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J29">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N29">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O29">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P29">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q29">
-        <v>53.442620487484</v>
+        <v>0.84072180155</v>
       </c>
       <c r="R29">
-        <v>320.655722924904</v>
+        <v>5.0443308093</v>
       </c>
       <c r="S29">
-        <v>0.000659150608102281</v>
+        <v>6.012572942823674E-06</v>
       </c>
       <c r="T29">
-        <v>0.0004697431698190613</v>
+        <v>4.266312650302329E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H30">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I30">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J30">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N30">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O30">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P30">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q30">
-        <v>87.19205716966843</v>
+        <v>7.780366020199446</v>
       </c>
       <c r="R30">
-        <v>784.7285145270159</v>
+        <v>70.02329418179501</v>
       </c>
       <c r="S30">
-        <v>0.001075409420062694</v>
+        <v>5.564268481210995E-05</v>
       </c>
       <c r="T30">
-        <v>0.001149584534150519</v>
+        <v>5.922317093733387E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H31">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I31">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J31">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N31">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O31">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P31">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q31">
-        <v>263.4194337399084</v>
+        <v>3.797241709506111</v>
       </c>
       <c r="R31">
-        <v>2370.774903659175</v>
+        <v>34.175175385555</v>
       </c>
       <c r="S31">
-        <v>0.00324896268842736</v>
+        <v>2.715665600421583E-05</v>
       </c>
       <c r="T31">
-        <v>0.00347305611143935</v>
+        <v>2.89041279380182E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H32">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I32">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J32">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N32">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O32">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P32">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q32">
-        <v>10.81630243958333</v>
+        <v>2.087907636699</v>
       </c>
       <c r="R32">
-        <v>64.89781463750001</v>
+        <v>12.527445820194</v>
       </c>
       <c r="S32">
-        <v>0.0001334061141732234</v>
+        <v>1.493204641581396E-05</v>
       </c>
       <c r="T32">
-        <v>9.507176383466151E-05</v>
+        <v>1.059526081836956E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H33">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I33">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J33">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>19.794779</v>
       </c>
       <c r="O33">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P33">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q33">
-        <v>8.99947633036111</v>
+        <v>1.467010866469</v>
       </c>
       <c r="R33">
-        <v>80.99528697325</v>
+        <v>13.203097798221</v>
       </c>
       <c r="S33">
-        <v>0.0001109977437792157</v>
+        <v>1.049159166123426E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001186536840701558</v>
+        <v>1.116670283714913E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H34">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I34">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J34">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N34">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O34">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P34">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q34">
-        <v>36.58532013391667</v>
+        <v>6.748383281802</v>
       </c>
       <c r="R34">
-        <v>329.26788120525</v>
+        <v>60.73544953621801</v>
       </c>
       <c r="S34">
-        <v>0.0004512360321016719</v>
+        <v>4.826227493227821E-05</v>
       </c>
       <c r="T34">
-        <v>0.000482359512645229</v>
+        <v>5.136784768366988E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H35">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I35">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J35">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N35">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O35">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P35">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q35">
-        <v>6.332664401375</v>
+        <v>1.23582241719</v>
       </c>
       <c r="R35">
-        <v>37.99598640825</v>
+        <v>7.41493450314</v>
       </c>
       <c r="S35">
-        <v>7.810581803434528E-05</v>
+        <v>8.83820594878392E-06</v>
       </c>
       <c r="T35">
-        <v>5.56620506660763E-05</v>
+        <v>6.271283559275386E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H36">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I36">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J36">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N36">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O36">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P36">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q36">
-        <v>10.33179195713889</v>
+        <v>11.436780542599</v>
       </c>
       <c r="R36">
-        <v>92.98612761425001</v>
+        <v>102.931024883391</v>
       </c>
       <c r="S36">
-        <v>0.0001274302586440212</v>
+        <v>8.17921898976155E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001362196125373602</v>
+        <v>8.705533997869058E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H37">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I37">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J37">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N37">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O37">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P37">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q37">
-        <v>31.21379257713888</v>
+        <v>5.581770830071</v>
       </c>
       <c r="R37">
-        <v>280.92413319425</v>
+        <v>50.235937470639</v>
       </c>
       <c r="S37">
-        <v>0.0003849846839605859</v>
+        <v>3.991903648038248E-05</v>
       </c>
       <c r="T37">
-        <v>0.0004115385548139557</v>
+        <v>4.248773992689932E-05</v>
       </c>
     </row>
   </sheetData>
